--- a/other/Zeit.xlsx
+++ b/other/Zeit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t xml:space="preserve">Total Zeit </t>
   </si>
@@ -42,15 +42,33 @@
   <si>
     <t>Implementation</t>
   </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -64,7 +82,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -72,12 +90,155 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -187,7 +348,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$B$5:$B$7</c:f>
+              <c:f>Tabelle1!$B$36:$B$38</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -204,12 +365,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$5:$C$7</c:f>
+              <c:f>Tabelle1!$F$36:$F$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>330.5</c:v>
+                  <c:v>346.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>376.03</c:v>
@@ -230,11 +391,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="235288832"/>
-        <c:axId val="235289952"/>
+        <c:axId val="33063760"/>
+        <c:axId val="33064320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="235288832"/>
+        <c:axId val="33063760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -277,7 +438,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235289952"/>
+        <c:crossAx val="33064320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -285,7 +446,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="235289952"/>
+        <c:axId val="33064320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1"/>
@@ -337,7 +498,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235288832"/>
+        <c:crossAx val="33063760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1707,16 +1868,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>295273</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266698</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1737,16 +1898,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>342898</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114298</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2055,16 +2216,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:C28"/>
+  <dimension ref="A4:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
@@ -2075,36 +2239,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>330.5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>376.03</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>372.77</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C8">
-        <f>SUM(C5:C7)</f>
-        <v>1079.3</v>
-      </c>
-    </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>5</v>
@@ -2134,8 +2268,110 @@
         <v>767.01</v>
       </c>
     </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="9">
+        <v>21.2</v>
+      </c>
+      <c r="D36" s="4">
+        <v>73.75</v>
+      </c>
+      <c r="E36" s="4">
+        <v>251.55</v>
+      </c>
+      <c r="F36" s="5">
+        <v>346.5</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="9">
+        <v>23.67</v>
+      </c>
+      <c r="D37" s="4">
+        <v>68.040000000000006</v>
+      </c>
+      <c r="E37" s="4">
+        <v>284.32</v>
+      </c>
+      <c r="F37" s="5">
+        <v>376.03</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="9">
+        <v>24.07</v>
+      </c>
+      <c r="D38" s="4">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="E38" s="4">
+        <v>277.8</v>
+      </c>
+      <c r="F38" s="5">
+        <v>372.77</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C39" s="10">
+        <v>68.97</v>
+      </c>
+      <c r="D39" s="11">
+        <v>212.69</v>
+      </c>
+      <c r="E39" s="11">
+        <v>813.67</v>
+      </c>
+      <c r="F39" s="12">
+        <f>SUM(F36:F38)</f>
+        <v>1095.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>